--- a/가계부.xlsx
+++ b/가계부.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,15 +510,25 @@
           <t>대출</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>누나,형</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>킹쩔수없음</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -546,15 +556,25 @@
           <t>보증금</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>12개월적금</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>킹쩔수없음</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -582,15 +602,25 @@
           <t>공인중개비</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>공인중개비</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>킹쩔수없음</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -618,15 +648,25 @@
           <t>월세</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>월세</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>킹쩔수없음</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -659,14 +699,20 @@
           <t>김가네</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>괜찮</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -699,14 +745,20 @@
           <t>드라이버</t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>훌륭</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -739,14 +791,20 @@
           <t>행주</t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>애매</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -779,14 +837,20 @@
           <t>빗자루</t>
         </is>
       </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>괜찮</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -819,14 +883,20 @@
           <t>식탁</t>
         </is>
       </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>괜찮</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -859,14 +929,20 @@
           <t>lan선</t>
         </is>
       </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>흑우</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -899,14 +975,20 @@
           <t>밀대걸레</t>
         </is>
       </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>훌륭</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -939,14 +1021,20 @@
           <t>수건</t>
         </is>
       </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>괜찮</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -979,14 +1067,20 @@
           <t>히스피</t>
         </is>
       </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>애매</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1019,14 +1113,20 @@
           <t>빗자루, 쓰레기통</t>
         </is>
       </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>왜샀노</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1059,14 +1159,20 @@
           <t>도구류</t>
         </is>
       </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>괜찮</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1099,14 +1205,20 @@
           <t>히스피</t>
         </is>
       </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>왜샀노</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1139,14 +1251,20 @@
           <t>김가네</t>
         </is>
       </c>
-      <c r="H18" t="n">
-        <v>3</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>애매</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1179,14 +1297,20 @@
           <t>욕실류</t>
         </is>
       </c>
-      <c r="H19" t="n">
-        <v>3</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>훌륭</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1214,15 +1338,25 @@
           <t>통신</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>3</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>kt</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>킹쩔수없음</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1255,14 +1389,20 @@
           <t>도구류</t>
         </is>
       </c>
-      <c r="H21" t="n">
-        <v>3</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>괜찮</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1295,14 +1435,20 @@
           <t>매트리스</t>
         </is>
       </c>
-      <c r="H22" t="n">
-        <v>3</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>괜찮</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1330,15 +1476,25 @@
           <t>구글플레이</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="n">
-        <v>3</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1</v>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>구글</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>킹쩔수없음</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1371,14 +1527,20 @@
           <t>CU</t>
         </is>
       </c>
-      <c r="H24" t="n">
-        <v>3</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>애매</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1411,14 +1573,20 @@
           <t>컴포즈커피</t>
         </is>
       </c>
-      <c r="H25" t="n">
-        <v>3</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>애매</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1451,14 +1619,20 @@
           <t>니뜨내뜨</t>
         </is>
       </c>
-      <c r="H26" t="n">
-        <v>3</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>왜샀노</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -1491,14 +1665,20 @@
           <t>식품류</t>
         </is>
       </c>
-      <c r="H27" t="n">
-        <v>3</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>괜찮</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -1531,14 +1711,342 @@
           <t>식칼</t>
         </is>
       </c>
-      <c r="H28" t="n">
-        <v>3</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>괜찮</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>7</v>
+      </c>
+      <c r="B29" t="n">
+        <v>26</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1500</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>식비</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>외식</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>아침</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>괜찮</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>7</v>
+      </c>
+      <c r="B30" t="n">
+        <v>26</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>4200</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>식비</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>커피</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>하이오</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>애매</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>7</v>
+      </c>
+      <c r="B31" t="n">
+        <v>27</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1500</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>식비</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>커피</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>컴포즈</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>애매</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>7</v>
+      </c>
+      <c r="B32" t="n">
+        <v>26</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>6200</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>식비</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>외식</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>버거킹</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>괜찮</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>7</v>
+      </c>
+      <c r="B33" t="n">
+        <v>26</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>17000</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>생필품</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>주방</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>다이소</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>훌륭</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>7</v>
+      </c>
+      <c r="B34" t="n">
+        <v>27</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>10840</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>식비</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>집밥</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>우리마트</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>괜찮</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>7</v>
+      </c>
+      <c r="B35" t="n">
+        <v>28</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>9970</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>식비</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>집밥</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>우리마트</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>훌륭</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/가계부.xlsx
+++ b/가계부.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,50 +436,55 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>연도</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>월</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>일</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>수익/지출</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>금액</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>대분류</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>소분류</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>항목명</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>평가</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>동백전유무</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>고정지출</t>
         </is>
@@ -487,45 +492,48 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7</v>
+        <v>2022</v>
       </c>
       <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="n">
         <v>22</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>수익</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>1900000</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>대출</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>대출</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>누나,형</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>킹쩔수없음</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="J2" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -533,45 +541,48 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7</v>
+        <v>2022</v>
       </c>
       <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
         <v>23</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>지출</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>900000</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>보증금</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>보증금</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>12개월적금</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>킹쩔수없음</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="J3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -579,45 +590,48 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7</v>
+        <v>2022</v>
       </c>
       <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="n">
         <v>23</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>지출</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>110000</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>공인중개비</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>공인중개비</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>공인중개비</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>킹쩔수없음</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="J4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -625,45 +639,48 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7</v>
+        <v>2022</v>
       </c>
       <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
         <v>23</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>지출</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>300000</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>월세</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>월세</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>월세</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>킹쩔수없음</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="J5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -671,45 +688,48 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7</v>
+        <v>2022</v>
       </c>
       <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="n">
         <v>23</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>지출</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>12500</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>식비</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>외식</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>김가네</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>괜찮</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="J6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -717,45 +737,48 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7</v>
+        <v>2022</v>
       </c>
       <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="n">
         <v>23</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>지출</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>3500</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>생필품</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>도구</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>드라이버</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>훌륭</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="J7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -763,45 +786,48 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>2022</v>
       </c>
       <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
         <v>23</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>지출</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>2500</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>생필품</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>주방</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>행주</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>애매</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="J8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -809,45 +835,48 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>2022</v>
       </c>
       <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
         <v>23</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>지출</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>4400</v>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>생필품</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>도구</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>빗자루</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>괜찮</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="J9" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -855,45 +884,48 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>7</v>
+        <v>2022</v>
       </c>
       <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="n">
         <v>23</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>지출</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>13843</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>가구</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>가구</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>식탁</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>괜찮</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="J10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -901,45 +933,48 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>7</v>
+        <v>2022</v>
       </c>
       <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="n">
         <v>23</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>지출</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
         <v>3520</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>생필품</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>전자제품</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>lan선</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>흑우</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="J11" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -947,45 +982,48 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>7</v>
+        <v>2022</v>
       </c>
       <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="n">
         <v>23</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>지출</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
         <v>12500</v>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>생필품</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>도구</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>밀대걸레</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>훌륭</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="J12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -993,45 +1031,48 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7</v>
+        <v>2022</v>
       </c>
       <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="n">
         <v>23</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>지출</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
         <v>31517</v>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>생필품</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>도구</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>수건</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>괜찮</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="J13" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1039,45 +1080,48 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7</v>
+        <v>2022</v>
       </c>
       <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="n">
         <v>23</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>지출</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
         <v>2000</v>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>식비</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>커피</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>히스피</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>애매</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1085,45 +1129,48 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>7</v>
+        <v>2022</v>
       </c>
       <c r="B15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" t="n">
         <v>23</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>지출</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
         <v>12900</v>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>생필품</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>도구</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>빗자루, 쓰레기통</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>왜샀노</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1131,45 +1178,48 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>7</v>
+        <v>2022</v>
       </c>
       <c r="B16" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" t="n">
         <v>24</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>지출</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
         <v>38920</v>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>생필품</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>도구</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>도구류</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>괜찮</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1177,45 +1227,48 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>7</v>
+        <v>2022</v>
       </c>
       <c r="B17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C17" t="n">
         <v>24</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>지출</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
         <v>2000</v>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>식비</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>커피</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>히스피</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>왜샀노</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1223,45 +1276,48 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>7</v>
+        <v>2022</v>
       </c>
       <c r="B18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" t="n">
         <v>24</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>지출</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
         <v>9500</v>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>식비</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>외식</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>김가네</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>애매</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="J18" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1269,45 +1325,48 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>7</v>
+        <v>2022</v>
       </c>
       <c r="B19" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" t="n">
         <v>24</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>지출</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
         <v>23750</v>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>생필품</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>욕실</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>욕실류</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>훌륭</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="J19" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1315,45 +1374,48 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>7</v>
+        <v>2022</v>
       </c>
       <c r="B20" t="n">
+        <v>7</v>
+      </c>
+      <c r="C20" t="n">
         <v>24</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>지출</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
         <v>99880</v>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>통신</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>통신</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>kt</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>킹쩔수없음</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="J20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1361,45 +1423,48 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>7</v>
+        <v>2022</v>
       </c>
       <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" t="n">
         <v>24</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>지출</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
         <v>12000</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>생필품</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>도구</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>도구류</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>괜찮</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="J21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1407,45 +1472,48 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>7</v>
+        <v>2022</v>
       </c>
       <c r="B22" t="n">
+        <v>7</v>
+      </c>
+      <c r="C22" t="n">
         <v>25</v>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>지출</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
         <v>109750</v>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>가구</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>가구</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>매트리스</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>괜찮</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="J22" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1453,45 +1521,48 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>7</v>
+        <v>2022</v>
       </c>
       <c r="B23" t="n">
+        <v>7</v>
+      </c>
+      <c r="C23" t="n">
         <v>25</v>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>지출</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
         <v>2400</v>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>구글플레이</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>구글플레이</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>구글</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>킹쩔수없음</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="J23" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1499,45 +1570,48 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>7</v>
+        <v>2022</v>
       </c>
       <c r="B24" t="n">
+        <v>7</v>
+      </c>
+      <c r="C24" t="n">
         <v>25</v>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>지출</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
         <v>6650</v>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>식비</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>외식</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>CU</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>애매</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1545,45 +1619,48 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>7</v>
+        <v>2022</v>
       </c>
       <c r="B25" t="n">
+        <v>7</v>
+      </c>
+      <c r="C25" t="n">
         <v>24</v>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>지출</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
         <v>4500</v>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>식비</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>커피</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>컴포즈커피</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>애매</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1591,45 +1668,48 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>7</v>
+        <v>2022</v>
       </c>
       <c r="B26" t="n">
+        <v>7</v>
+      </c>
+      <c r="C26" t="n">
         <v>25</v>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>지출</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
         <v>1800</v>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>식비</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>커피</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>니뜨내뜨</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>왜샀노</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1637,45 +1717,48 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>7</v>
+        <v>2022</v>
       </c>
       <c r="B27" t="n">
+        <v>7</v>
+      </c>
+      <c r="C27" t="n">
         <v>25</v>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>지출</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
         <v>27640</v>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>식비</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>집밥</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>식품류</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>괜찮</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="J27" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1683,45 +1766,48 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>7</v>
+        <v>2022</v>
       </c>
       <c r="B28" t="n">
+        <v>7</v>
+      </c>
+      <c r="C28" t="n">
         <v>25</v>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>지출</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
         <v>7400</v>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>생필품</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>도구</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>식칼</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>괜찮</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="J28" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1729,45 +1815,48 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>7</v>
+        <v>2022</v>
       </c>
       <c r="B29" t="n">
+        <v>7</v>
+      </c>
+      <c r="C29" t="n">
         <v>26</v>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>지출</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
         <v>1500</v>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>식비</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>외식</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>아침</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>괜찮</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1775,45 +1864,48 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>7</v>
+        <v>2022</v>
       </c>
       <c r="B30" t="n">
+        <v>7</v>
+      </c>
+      <c r="C30" t="n">
         <v>26</v>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>지출</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
         <v>4200</v>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>식비</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>커피</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>하이오</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>애매</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1821,45 +1913,48 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>7</v>
+        <v>2022</v>
       </c>
       <c r="B31" t="n">
+        <v>7</v>
+      </c>
+      <c r="C31" t="n">
         <v>27</v>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>지출</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
         <v>1500</v>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>식비</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>커피</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>컴포즈</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>애매</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1867,45 +1962,48 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>7</v>
+        <v>2022</v>
       </c>
       <c r="B32" t="n">
+        <v>7</v>
+      </c>
+      <c r="C32" t="n">
         <v>26</v>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>지출</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
         <v>6200</v>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>식비</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>외식</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>버거킹</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>괜찮</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="J32" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1913,45 +2011,48 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>7</v>
+        <v>2022</v>
       </c>
       <c r="B33" t="n">
+        <v>7</v>
+      </c>
+      <c r="C33" t="n">
         <v>26</v>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>지출</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
         <v>17000</v>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>생필품</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>주방</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>다이소</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>훌륭</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="J33" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -1959,45 +2060,48 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>7</v>
+        <v>2022</v>
       </c>
       <c r="B34" t="n">
+        <v>7</v>
+      </c>
+      <c r="C34" t="n">
         <v>27</v>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>지출</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
         <v>10840</v>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>식비</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>집밥</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>우리마트</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>괜찮</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="J34" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -2005,45 +2109,97 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>7</v>
+        <v>2022</v>
       </c>
       <c r="B35" t="n">
+        <v>7</v>
+      </c>
+      <c r="C35" t="n">
         <v>28</v>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>지출</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
         <v>9970</v>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>식비</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>집밥</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>우리마트</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>훌륭</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="J35" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B36" t="n">
+        <v>7</v>
+      </c>
+      <c r="C36" t="n">
+        <v>29</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>600</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>식비</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>간식</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>거북알</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>괜찮</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>N</t>
         </is>

--- a/가계부.xlsx
+++ b/가계부.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2205,6 +2205,1035 @@
         </is>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B37" t="n">
+        <v>7</v>
+      </c>
+      <c r="C37" t="n">
+        <v>30</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>7000</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>식비</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>커피</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>해솔</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>괜찮</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B38" t="n">
+        <v>7</v>
+      </c>
+      <c r="C38" t="n">
+        <v>30</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>700</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>식비</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>간식</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>매콤순살꼬지</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>왜샀노</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B39" t="n">
+        <v>7</v>
+      </c>
+      <c r="C39" t="n">
+        <v>31</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>식비</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>간식</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>아이스크림</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>괜찮</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B40" t="n">
+        <v>7</v>
+      </c>
+      <c r="C40" t="n">
+        <v>30</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>10450</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>구독</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>유튜브프리미엄</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>유튜브프리미엄</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>킹쩔수없음</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B41" t="n">
+        <v>7</v>
+      </c>
+      <c r="C41" t="n">
+        <v>31</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>2250</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>식비</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>커피</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>편의점</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>괜찮</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B42" t="n">
+        <v>7</v>
+      </c>
+      <c r="C42" t="n">
+        <v>31</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>13700</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>식비</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>외식</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>맘스터치</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>괜찮</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B43" t="n">
+        <v>7</v>
+      </c>
+      <c r="C43" t="n">
+        <v>31</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>식비</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>간식</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>롯데리아</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>괜찮</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B44" t="n">
+        <v>7</v>
+      </c>
+      <c r="C44" t="n">
+        <v>30</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>식비</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>커피</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>스벅깊티콘</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>괜찮</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B45" t="n">
+        <v>7</v>
+      </c>
+      <c r="C45" t="n">
+        <v>31</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>8000</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>생필품</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>주방</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>다이소</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>훌륭</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B46" t="n">
+        <v>7</v>
+      </c>
+      <c r="C46" t="n">
+        <v>31</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>3490</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>식비</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>집밥</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>파인애플썩음</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>흑우</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B47" t="n">
+        <v>8</v>
+      </c>
+      <c r="C47" t="n">
+        <v>3</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>수익</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>29000</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>용돈</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>용돈</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>엄마</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>킹쩔수없음</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B48" t="n">
+        <v>8</v>
+      </c>
+      <c r="C48" t="n">
+        <v>3</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>수익</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>대출</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>대출</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>누나</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>킹쩔수없음</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B49" t="n">
+        <v>8</v>
+      </c>
+      <c r="C49" t="n">
+        <v>3</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>4990</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>구독</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>쿠팡와우</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>쿠팡와우</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>킹쩔수없음</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B50" t="n">
+        <v>8</v>
+      </c>
+      <c r="C50" t="n">
+        <v>3</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>30000</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>취미</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>굿즈</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>망곰굿즈</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>훌륭</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B51" t="n">
+        <v>8</v>
+      </c>
+      <c r="C51" t="n">
+        <v>3</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>수익</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>22000</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>대리구매</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>망곰굿즈</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>훌륭</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B52" t="n">
+        <v>8</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>식비</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>커피</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>인생커피</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>괜찮</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B53" t="n">
+        <v>8</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>3500</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>생필품</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>주방</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>키친타올</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>왜샀노</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B54" t="n">
+        <v>8</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>16580</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>식비</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>집밥</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>우리마트</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>괜찮</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B55" t="n">
+        <v>8</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>10580</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>식비</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>집밥</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>우리마트</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>괜찮</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B56" t="n">
+        <v>8</v>
+      </c>
+      <c r="C56" t="n">
+        <v>3</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>식비</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>커피</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>컴포즈</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>애매</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B57" t="n">
+        <v>8</v>
+      </c>
+      <c r="C57" t="n">
+        <v>4</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>교통비</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>버스비</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>후불교통카드</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>괜찮</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/가계부.xlsx
+++ b/가계부.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/가계부.xlsx
+++ b/가계부.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3193,7 +3193,7 @@
         <v>8</v>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3201,34 +3201,622 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
+          <t>식비</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>간식</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>콜라</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>훌륭</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B58" t="n">
+        <v>8</v>
+      </c>
+      <c r="C58" t="n">
+        <v>5</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>10800</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>식비</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>간식</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>더토브도넛</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>훌륭</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B59" t="n">
+        <v>8</v>
+      </c>
+      <c r="C59" t="n">
+        <v>7</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>4890</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>구독</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>카카오</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>이모티콘</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>킹쩔수없음</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B60" t="n">
+        <v>8</v>
+      </c>
+      <c r="C60" t="n">
+        <v>7</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
           <t>교통비</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>버스비</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>후불교통카드</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>카드충전</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>긴급사용</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>킹쩔수없음</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B61" t="n">
+        <v>8</v>
+      </c>
+      <c r="C61" t="n">
+        <v>7</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>식비</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>커피</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>스벅깊티콘</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>애매</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B62" t="n">
+        <v>8</v>
+      </c>
+      <c r="C62" t="n">
+        <v>7</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>10500</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>생필품</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>도구</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>다이소</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>괜찮</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B63" t="n">
+        <v>8</v>
+      </c>
+      <c r="C63" t="n">
+        <v>7</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>식비</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>간식</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>콜라</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>괜찮</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B64" t="n">
+        <v>8</v>
+      </c>
+      <c r="C64" t="n">
+        <v>8</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>2800</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>식비</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>간식</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>아이스크림</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>괜찮</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B65" t="n">
+        <v>8</v>
+      </c>
+      <c r="C65" t="n">
+        <v>9</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>식비</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>간식</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>아침</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>애매</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B66" t="n">
+        <v>8</v>
+      </c>
+      <c r="C66" t="n">
+        <v>9</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>1980</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>식비</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>간식</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>음료</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>왜샀노</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B67" t="n">
+        <v>8</v>
+      </c>
+      <c r="C67" t="n">
+        <v>10</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>14400</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>식비</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>술</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>트리플섹보드카</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>괜찮</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B68" t="n">
+        <v>8</v>
+      </c>
+      <c r="C68" t="n">
+        <v>10</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>12100</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>생필품</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>주방</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>dc마트</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>괜찮</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B69" t="n">
+        <v>8</v>
+      </c>
+      <c r="C69" t="n">
+        <v>9</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>25000</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>식비</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>외식</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>봉대박</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>괜찮</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
         <is>
           <t>N</t>
         </is>

--- a/가계부.xlsx
+++ b/가계부.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K69"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3822,6 +3822,104 @@
         </is>
       </c>
     </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B70" t="n">
+        <v>8</v>
+      </c>
+      <c r="C70" t="n">
+        <v>11</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>7300</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>식비</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>외식</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>롯데리아</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>애매</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B71" t="n">
+        <v>8</v>
+      </c>
+      <c r="C71" t="n">
+        <v>11</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>6120</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>식비</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>집밥</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>우리마트</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>괜찮</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/가계부.xlsx
+++ b/가계부.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:K86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,7 +486,7 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>고정지출</t>
+          <t>고정항목</t>
         </is>
       </c>
     </row>
@@ -559,7 +559,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>보증금</t>
+          <t>집</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -608,7 +608,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>공인중개비</t>
+          <t>집</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>월세</t>
+          <t>집</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>lan선</t>
+          <t>랜선</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1478,7 +1478,7 @@
         <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1486,31 +1486,31 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>109750</v>
+        <v>4500</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>가구</t>
+          <t>식비</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>가구</t>
+          <t>커피</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>매트리스</t>
+          <t>컴포즈커피</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>괜찮</t>
+          <t>애매</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1539,7 +1539,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>구글플레이</t>
+          <t>구독</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1584,31 +1584,31 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6650</v>
+        <v>109750</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>가구</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>외식</t>
+          <t>가구</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>CU</t>
+          <t>매트리스</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>애매</t>
+          <t>괜찮</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1625,7 +1625,7 @@
         <v>7</v>
       </c>
       <c r="C25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4500</v>
+        <v>6650</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1642,12 +1642,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>커피</t>
+          <t>외식</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>컴포즈커피</t>
+          <t>CU</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1919,7 +1919,7 @@
         <v>7</v>
       </c>
       <c r="C31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1500</v>
+        <v>6200</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1936,22 +1936,22 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>커피</t>
+          <t>외식</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>컴포즈</t>
+          <t>버거킹</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>애매</t>
+          <t>괜찮</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -1976,26 +1976,26 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6200</v>
+        <v>17000</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>생필품</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>외식</t>
+          <t>주방</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>버거킹</t>
+          <t>다이소</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>괜찮</t>
+          <t>훌륭</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2017,7 +2017,7 @@
         <v>7</v>
       </c>
       <c r="C33" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2025,31 +2025,31 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>17000</v>
+        <v>1500</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>생필품</t>
+          <t>식비</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>주방</t>
+          <t>커피</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>다이소</t>
+          <t>컴포즈</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>훌륭</t>
+          <t>애매</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2311,7 +2311,7 @@
         <v>7</v>
       </c>
       <c r="C39" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2328,12 +2328,12 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>간식</t>
+          <t>커피</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>아이스크림</t>
+          <t>스벅깊티콘</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2417,7 +2417,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2250</v>
+        <v>1000</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2426,12 +2426,12 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>커피</t>
+          <t>간식</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>편의점</t>
+          <t>아이스크림</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2441,7 +2441,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>13700</v>
+        <v>2250</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2475,12 +2475,12 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>외식</t>
+          <t>커피</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>맘스터치</t>
+          <t>편의점</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2515,7 +2515,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1800</v>
+        <v>13700</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2524,12 +2524,12 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>간식</t>
+          <t>외식</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>롯데리아</t>
+          <t>맘스터치</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2556,7 +2556,7 @@
         <v>7</v>
       </c>
       <c r="C44" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2573,12 +2573,12 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>커피</t>
+          <t>간식</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>스벅깊티콘</t>
+          <t>롯데리아</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2703,34 +2703,34 @@
         <v>8</v>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>수익</t>
+          <t>지출</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>29000</v>
+        <v>10580</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>용돈</t>
+          <t>식비</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>용돈</t>
+          <t>집밥</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>엄마</t>
+          <t>우리마트</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>킹쩔수없음</t>
+          <t>괜찮</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2752,34 +2752,34 @@
         <v>8</v>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>수익</t>
+          <t>지출</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>100000</v>
+        <v>2000</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>대출</t>
+          <t>식비</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>대출</t>
+          <t>커피</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>누나</t>
+          <t>인생커피</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>킹쩔수없음</t>
+          <t>괜찮</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2850,7 +2850,7 @@
         <v>8</v>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -2858,26 +2858,26 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>30000</v>
+        <v>3500</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>취미</t>
+          <t>생필품</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>굿즈</t>
+          <t>주방</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>망곰굿즈</t>
+          <t>키친타올</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>훌륭</t>
+          <t>왜샀노</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2899,34 +2899,34 @@
         <v>8</v>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>수익</t>
+          <t>지출</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>22000</v>
+        <v>16580</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>기타</t>
+          <t>식비</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>대리구매</t>
+          <t>집밥</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>망곰굿즈</t>
+          <t>우리마트</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>훌륭</t>
+          <t>괜찮</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2948,34 +2948,34 @@
         <v>8</v>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>지출</t>
+          <t>수익</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>2000</v>
+        <v>29000</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>용돈</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>커피</t>
+          <t>용돈</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>인생커피</t>
+          <t>엄마</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>괜찮</t>
+          <t>킹쩔수없음</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2997,34 +2997,34 @@
         <v>8</v>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>지출</t>
+          <t>수익</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>3500</v>
+        <v>100000</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>생필품</t>
+          <t>대출</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>주방</t>
+          <t>대출</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>키친타올</t>
+          <t>누나</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>왜샀노</t>
+          <t>킹쩔수없음</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3046,7 +3046,7 @@
         <v>8</v>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3054,26 +3054,26 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>16580</v>
+        <v>30000</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>취미</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>집밥</t>
+          <t>굿즈</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>우리마트</t>
+          <t>망곰굿즈</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>괜찮</t>
+          <t>훌륭</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3095,34 +3095,34 @@
         <v>8</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>지출</t>
+          <t>수익</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>10580</v>
+        <v>22000</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>기타</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>집밥</t>
+          <t>대리구매</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>우리마트</t>
+          <t>망곰굿즈</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>괜찮</t>
+          <t>훌륭</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3328,7 +3328,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -3683,7 +3683,7 @@
         <v>8</v>
       </c>
       <c r="C67" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>14400</v>
+        <v>25000</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -3700,12 +3700,12 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>술</t>
+          <t>외식</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>트리플섹보드카</t>
+          <t>봉대박</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3740,21 +3740,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>12100</v>
+        <v>14400</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>생필품</t>
+          <t>식비</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>주방</t>
+          <t>술</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>dc마트</t>
+          <t>트리플섹보드카</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3781,7 +3781,7 @@
         <v>8</v>
       </c>
       <c r="C69" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -3789,21 +3789,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>25000</v>
+        <v>12100</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>생필품</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>외식</t>
+          <t>주방</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>봉대박</t>
+          <t>dc마트</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -3915,6 +3915,741 @@
         </is>
       </c>
       <c r="K71" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B72" t="n">
+        <v>8</v>
+      </c>
+      <c r="C72" t="n">
+        <v>12</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>3250</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>구독</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>왓챠</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>왓챠'</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>킹쩔수없음</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B73" t="n">
+        <v>8</v>
+      </c>
+      <c r="C73" t="n">
+        <v>12</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>4000</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>사줌</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>훌륭</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B74" t="n">
+        <v>8</v>
+      </c>
+      <c r="C74" t="n">
+        <v>12</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>10150</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>식비</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>간식</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>괜찮</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B75" t="n">
+        <v>8</v>
+      </c>
+      <c r="C75" t="n">
+        <v>12</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>수익</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>50000</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>알바</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>꽃집</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>킹쩔수없음</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B76" t="n">
+        <v>8</v>
+      </c>
+      <c r="C76" t="n">
+        <v>14</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>8000</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>식비</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>외식</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>포항국밥</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>애매</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B77" t="n">
+        <v>8</v>
+      </c>
+      <c r="C77" t="n">
+        <v>14</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>식비</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>커피</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>스벅깊티</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>괜찮</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B78" t="n">
+        <v>8</v>
+      </c>
+      <c r="C78" t="n">
+        <v>14</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>13500</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>구독</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>넷플릭스</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>스탠다드</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>킹쩔수없음</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B79" t="n">
+        <v>8</v>
+      </c>
+      <c r="C79" t="n">
+        <v>14</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>14050</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>생필품</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>주방</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>다이소</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>훌륭</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B80" t="n">
+        <v>8</v>
+      </c>
+      <c r="C80" t="n">
+        <v>14</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>6030</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>식비</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>집밥</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>우리마트</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>괜찮</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B81" t="n">
+        <v>8</v>
+      </c>
+      <c r="C81" t="n">
+        <v>15</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>8200</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>식비</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>커피</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>하삼동</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>괜찮</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B82" t="n">
+        <v>8</v>
+      </c>
+      <c r="C82" t="n">
+        <v>15</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>810</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>식비</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>간식</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>물</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>괜찮</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B83" t="n">
+        <v>8</v>
+      </c>
+      <c r="C83" t="n">
+        <v>15</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>식비</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>간식</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>세계과자점</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>괜찮</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B84" t="n">
+        <v>8</v>
+      </c>
+      <c r="C84" t="n">
+        <v>15</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>가구</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>인테리어</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>화병</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>훌륭</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B85" t="n">
+        <v>8</v>
+      </c>
+      <c r="C85" t="n">
+        <v>15</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>6000</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>식비</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>외식</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>만두</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>훌륭</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B86" t="n">
+        <v>8</v>
+      </c>
+      <c r="C86" t="n">
+        <v>15</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>지출</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>식비</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>간식</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>이마트</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>괜찮</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
         <is>
           <t>N</t>
         </is>

--- a/가계부.xlsx
+++ b/가계부.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K86"/>
+  <dimension ref="A1:K87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,22 +505,24 @@
           <t>수익</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>1900000</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0x1cfde0</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>대출</t>
+          <t>45824p52636</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>대출</t>
+          <t>45824p52636</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>누나,형</t>
+          <t>45572p45208p44p54805</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -554,22 +556,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E3" t="n">
-        <v>900000</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0xdbba0</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>집</t>
+          <t>51665</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>보증금</t>
+          <t>48372p51613p44552</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>12개월적금</t>
+          <t>49p50p44060p50900p51201p44552</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -603,22 +607,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E4" t="n">
-        <v>110000</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0x1adb0</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>집</t>
+          <t>51665</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>공인중개비</t>
+          <t>44277p51064p51473p44060p48708</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>공인중개비</t>
+          <t>44277p51064p51473p44060p48708</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -652,22 +658,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E5" t="n">
-        <v>300000</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0x493e0</t>
+        </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>집</t>
+          <t>51665</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>월세</t>
+          <t>50900p49464</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>월세</t>
+          <t>50900p49464</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -701,22 +709,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E6" t="n">
-        <v>12500</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0x30d4</t>
+        </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>49885p48708</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>외식</t>
+          <t>50808p49885</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>김가네</t>
+          <t>44608p44032p45348</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -750,22 +760,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E7" t="n">
-        <v>3500</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0xdac</t>
+        </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>생필품</t>
+          <t>49373p54596p54408</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>도구</t>
+          <t>46020p44396</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>드라이버</t>
+          <t>46300p46972p51060p48260</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -799,22 +811,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E8" t="n">
-        <v>2500</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0x9c4</t>
+        </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>생필품</t>
+          <t>49373p54596p54408</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>주방</t>
+          <t>51452p48169</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>행주</t>
+          <t>54665p51452</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -848,22 +862,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E9" t="n">
-        <v>4400</v>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0x1130</t>
+        </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>생필품</t>
+          <t>49373p54596p54408</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>도구</t>
+          <t>46020p44396</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>빗자루</t>
+          <t>48727p51088p47336</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -897,22 +913,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E10" t="n">
-        <v>13843</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0x3613</t>
+        </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>가구</t>
+          <t>44032p44396</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>가구</t>
+          <t>44032p44396</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>식탁</t>
+          <t>49885p53441</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -946,22 +964,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E11" t="n">
-        <v>3520</v>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0xdc0</t>
+        </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>생필품</t>
+          <t>49373p54596p54408</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>전자제품</t>
+          <t>51204p51088p51228p54408</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>랜선</t>
+          <t>47004p49440</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -995,22 +1015,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E12" t="n">
-        <v>12500</v>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0x30d4</t>
+        </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>생필품</t>
+          <t>49373p54596p54408</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>도구</t>
+          <t>46020p44396</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>밀대걸레</t>
+          <t>48128p45824p44152p47112</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1044,22 +1066,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E13" t="n">
-        <v>31517</v>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0x7b1d</t>
+        </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>생필품</t>
+          <t>49373p54596p54408</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>도구</t>
+          <t>46020p44396</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>수건</t>
+          <t>49688p44148</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1093,22 +1117,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E14" t="n">
-        <v>2000</v>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0x7d0</t>
+        </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>49885p48708</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>커피</t>
+          <t>52964p54588</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>히스피</t>
+          <t>55176p49828p54588</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1142,22 +1168,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E15" t="n">
-        <v>12900</v>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0x3264</t>
+        </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>생필품</t>
+          <t>49373p54596p54408</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>도구</t>
+          <t>46020p44396</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>빗자루, 쓰레기통</t>
+          <t>48727p51088p47336p44p32p50416p47112p44592p53685</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1191,22 +1219,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E16" t="n">
-        <v>38920</v>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0x9808</t>
+        </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>생필품</t>
+          <t>49373p54596p54408</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>도구</t>
+          <t>46020p44396</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>도구류</t>
+          <t>46020p44396p47448</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1240,22 +1270,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E17" t="n">
-        <v>2000</v>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0x7d0</t>
+        </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>49885p48708</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>커피</t>
+          <t>52964p54588</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>히스피</t>
+          <t>55176p49828p54588</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1289,22 +1321,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E18" t="n">
-        <v>9500</v>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0x251c</t>
+        </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>49885p48708</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>외식</t>
+          <t>50808p49885</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>김가네</t>
+          <t>44608p44032p45348</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1338,22 +1372,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E19" t="n">
-        <v>23750</v>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0x5cc6</t>
+        </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>생필품</t>
+          <t>49373p54596p54408</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>욕실</t>
+          <t>50837p49892</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>욕실류</t>
+          <t>50837p49892p47448</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1387,22 +1423,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E20" t="n">
-        <v>99880</v>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0x18628</t>
+        </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>통신</t>
+          <t>53685p49888</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>통신</t>
+          <t>53685p49888</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>kt</t>
+          <t>107p116</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1436,22 +1474,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E21" t="n">
-        <v>12000</v>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0x2ee0</t>
+        </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>생필품</t>
+          <t>49373p54596p54408</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>도구</t>
+          <t>46020p44396</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>도구류</t>
+          <t>46020p44396p47448</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1485,22 +1525,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E22" t="n">
-        <v>4500</v>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0x1194</t>
+        </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>49885p48708</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>커피</t>
+          <t>52964p54588</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>컴포즈커피</t>
+          <t>52980p54252p51592p52964p54588</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1534,22 +1576,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E23" t="n">
-        <v>2400</v>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0x960</t>
+        </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>구독</t>
+          <t>44396p46021</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>구글플레이</t>
+          <t>44396p44544p54540p47112p51060</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>구글</t>
+          <t>44396p44544</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1583,22 +1627,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E24" t="n">
-        <v>109750</v>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0x1acb6</t>
+        </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>가구</t>
+          <t>44032p44396</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>가구</t>
+          <t>44032p44396</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>매트리스</t>
+          <t>47588p53944p47532p49828</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1632,22 +1678,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E25" t="n">
-        <v>6650</v>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0x19fa</t>
+        </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>49885p48708</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>외식</t>
+          <t>50808p49885</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>CU</t>
+          <t>67p85</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1681,22 +1729,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E26" t="n">
-        <v>1800</v>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0x708</t>
+        </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>49885p48708</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>커피</t>
+          <t>52964p54588</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>니뜨내뜨</t>
+          <t>45768p46888p45236p46888</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1730,22 +1780,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E27" t="n">
-        <v>27640</v>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0x6bf8</t>
+        </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>49885p48708</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>집밥</t>
+          <t>51665p48165</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>식품류</t>
+          <t>49885p54408p47448</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1779,22 +1831,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E28" t="n">
-        <v>7400</v>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0x1ce8</t>
+        </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>생필품</t>
+          <t>49373p54596p54408</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>도구</t>
+          <t>46020p44396</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>식칼</t>
+          <t>49885p52860</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1828,22 +1882,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E29" t="n">
-        <v>1500</v>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0x5dc</t>
+        </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>49885p48708</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>외식</t>
+          <t>50808p49885</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>아침</t>
+          <t>50500p52840</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1877,22 +1933,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E30" t="n">
-        <v>4200</v>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0x1068</t>
+        </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>49885p48708</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>커피</t>
+          <t>52964p54588</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>하이오</t>
+          <t>54616p51060p50724</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1926,22 +1984,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E31" t="n">
-        <v>6200</v>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0x1838</t>
+        </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>49885p48708</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>외식</t>
+          <t>50808p49885</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>버거킹</t>
+          <t>48260p44144p53433</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1975,22 +2035,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E32" t="n">
-        <v>17000</v>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0x4268</t>
+        </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>생필품</t>
+          <t>49373p54596p54408</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>주방</t>
+          <t>51452p48169</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>다이소</t>
+          <t>45796p51060p49548</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2024,22 +2086,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E33" t="n">
-        <v>1500</v>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0x5dc</t>
+        </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>49885p48708</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>커피</t>
+          <t>52964p54588</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>컴포즈</t>
+          <t>52980p54252p51592</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2073,22 +2137,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E34" t="n">
-        <v>10840</v>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0x2a58</t>
+        </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>49885p48708</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>집밥</t>
+          <t>51665p48165</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>우리마트</t>
+          <t>50864p47532p47560p53944</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2122,22 +2188,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E35" t="n">
-        <v>9970</v>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0x26f2</t>
+        </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>49885p48708</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>집밥</t>
+          <t>51665p48165</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>우리마트</t>
+          <t>50864p47532p47560p53944</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2171,22 +2239,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E36" t="n">
-        <v>600</v>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0x258</t>
+        </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>49885p48708</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>간식</t>
+          <t>44036p49885</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>거북알</t>
+          <t>44144p48513p50508</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2220,22 +2290,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E37" t="n">
-        <v>7000</v>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0x1b58</t>
+        </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>49885p48708</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>커피</t>
+          <t>52964p54588</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>해솔</t>
+          <t>54644p49556</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2269,22 +2341,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E38" t="n">
-        <v>700</v>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0x2bc</t>
+        </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>49885p48708</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>간식</t>
+          <t>44036p49885</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>매콤순살꼬지</t>
+          <t>47588p53092p49692p49332p44844p51648</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2318,22 +2392,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E39" t="n">
-        <v>1000</v>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0x3e8</t>
+        </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>49885p48708</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>커피</t>
+          <t>52964p54588</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>스벅깊티콘</t>
+          <t>49828p48261p44618p54000p53080</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2367,22 +2443,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E40" t="n">
-        <v>10450</v>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0x28d2</t>
+        </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>구독</t>
+          <t>44396p46021</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>유튜브프리미엄</t>
+          <t>50976p53916p48652p54532p47532p48120p50628</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>유튜브프리미엄</t>
+          <t>50976p53916p48652p54532p47532p48120p50628</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2416,22 +2494,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E41" t="n">
-        <v>1000</v>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0x3e8</t>
+        </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>49885p48708</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>간식</t>
+          <t>44036p49885</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>아이스크림</t>
+          <t>50500p51060p49828p53356p47548</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2465,22 +2545,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E42" t="n">
-        <v>2250</v>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0x8ca</t>
+        </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>49885p48708</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>커피</t>
+          <t>52964p54588</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>편의점</t>
+          <t>54200p51032p51216</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2514,22 +2596,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E43" t="n">
-        <v>13700</v>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0x3584</t>
+        </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>49885p48708</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>외식</t>
+          <t>50808p49885</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>맘스터치</t>
+          <t>47576p49828p53552p52824</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2563,22 +2647,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E44" t="n">
-        <v>1800</v>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0x708</t>
+        </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>49885p48708</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>간식</t>
+          <t>44036p49885</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>롯데리아</t>
+          <t>47215p45936p47532p50500</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2612,22 +2698,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E45" t="n">
-        <v>8000</v>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0x1f40</t>
+        </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>생필품</t>
+          <t>49373p54596p54408</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>주방</t>
+          <t>51452p48169</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>다이소</t>
+          <t>45796p51060p49548</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2661,22 +2749,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E46" t="n">
-        <v>3490</v>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0xda2</t>
+        </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>49885p48708</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>집밥</t>
+          <t>51665p48165</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>파인애플썩음</t>
+          <t>54028p51064p50528p54540p50025p51020</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2710,22 +2800,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E47" t="n">
-        <v>10580</v>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>0x2954</t>
+        </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>49885p48708</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>집밥</t>
+          <t>51665p48165</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>우리마트</t>
+          <t>50864p47532p47560p53944</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2759,22 +2851,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E48" t="n">
-        <v>2000</v>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>0x7d0</t>
+        </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>49885p48708</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>커피</t>
+          <t>52964p54588</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>인생커피</t>
+          <t>51064p49373p52964p54588</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2808,22 +2902,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E49" t="n">
-        <v>4990</v>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>0x137e</t>
+        </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>구독</t>
+          <t>44396p46021</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>쿠팡와우</t>
+          <t>53216p54049p50752p50864</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>쿠팡와우</t>
+          <t>53216p54049p50752p50864</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2857,22 +2953,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E50" t="n">
-        <v>3500</v>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0xdac</t>
+        </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>생필품</t>
+          <t>49373p54596p54408</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>주방</t>
+          <t>51452p48169</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>키친타올</t>
+          <t>53412p52828p53440p50732</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2906,22 +3004,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E51" t="n">
-        <v>16580</v>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0x40c4</t>
+        </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>49885p48708</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>집밥</t>
+          <t>51665p48165</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>우리마트</t>
+          <t>50864p47532p47560p53944</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2955,22 +3055,24 @@
           <t>수익</t>
         </is>
       </c>
-      <c r="E52" t="n">
-        <v>29000</v>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0x7148</t>
+        </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>용돈</t>
+          <t>50857p46024</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>용돈</t>
+          <t>50857p46024</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>엄마</t>
+          <t>50628p47560</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3004,22 +3106,24 @@
           <t>수익</t>
         </is>
       </c>
-      <c r="E53" t="n">
-        <v>100000</v>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0x186a0</t>
+        </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>대출</t>
+          <t>45824p52636</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>대출</t>
+          <t>45824p52636</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>누나</t>
+          <t>45572p45208</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3053,22 +3157,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E54" t="n">
-        <v>30000</v>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>0x7530</t>
+        </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>취미</t>
+          <t>52712p48120</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>굿즈</t>
+          <t>44415p51592</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>망곰굿즈</t>
+          <t>47581p44272p44415p51592</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3102,22 +3208,24 @@
           <t>수익</t>
         </is>
       </c>
-      <c r="E55" t="n">
-        <v>22000</v>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>0x55f0</t>
+        </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>기타</t>
+          <t>44592p53440</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>대리구매</t>
+          <t>45824p47532p44396p47588</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>망곰굿즈</t>
+          <t>47581p44272p44415p51592</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3151,22 +3259,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E56" t="n">
-        <v>1500</v>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>0x5dc</t>
+        </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>49885p48708</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>커피</t>
+          <t>52964p54588</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>컴포즈</t>
+          <t>52980p54252p51592</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3200,22 +3310,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E57" t="n">
-        <v>2000</v>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>0x7d0</t>
+        </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>49885p48708</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>간식</t>
+          <t>44036p49885</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>콜라</t>
+          <t>53084p46972</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3249,22 +3361,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E58" t="n">
-        <v>10800</v>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>0x2a30</t>
+        </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>49885p48708</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>간식</t>
+          <t>44036p49885</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>더토브도넛</t>
+          <t>45908p53664p48652p46020p45339</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3298,22 +3412,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E59" t="n">
-        <v>4890</v>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>0x131a</t>
+        </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>구독</t>
+          <t>44396p46021</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>카카오</t>
+          <t>52852p52852p50724</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>이모티콘</t>
+          <t>51060p47784p54000p53080</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3347,22 +3463,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E60" t="n">
-        <v>10000</v>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>0x2710</t>
+        </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>교통비</t>
+          <t>44368p53685p48708</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>카드충전</t>
+          <t>52852p46300p52649p51204</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>긴급사용</t>
+          <t>44596p44553p49324p50857</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3396,22 +3514,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E61" t="n">
-        <v>2400</v>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0x960</t>
+        </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>49885p48708</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>커피</t>
+          <t>52964p54588</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>스벅깊티콘</t>
+          <t>49828p48261p44618p54000p53080</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3445,22 +3565,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E62" t="n">
-        <v>10500</v>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>0x2904</t>
+        </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>생필품</t>
+          <t>49373p54596p54408</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>도구</t>
+          <t>46020p44396</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>다이소</t>
+          <t>45796p51060p49548</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3494,22 +3616,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E63" t="n">
-        <v>2000</v>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>0x7d0</t>
+        </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>49885p48708</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>간식</t>
+          <t>44036p49885</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>콜라</t>
+          <t>53084p46972</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3543,22 +3667,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E64" t="n">
-        <v>2800</v>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>0xaf0</t>
+        </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>49885p48708</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>간식</t>
+          <t>44036p49885</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>아이스크림</t>
+          <t>50500p51060p49828p53356p47548</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3592,22 +3718,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E65" t="n">
-        <v>2500</v>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0x9c4</t>
+        </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>49885p48708</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>간식</t>
+          <t>44036p49885</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>아침</t>
+          <t>50500p52840</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3641,22 +3769,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E66" t="n">
-        <v>1980</v>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0x7bc</t>
+        </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>49885p48708</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>간식</t>
+          <t>44036p49885</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>음료</t>
+          <t>51020p47308</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3690,22 +3820,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E67" t="n">
-        <v>25000</v>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0x61a8</t>
+        </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>49885p48708</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>외식</t>
+          <t>50808p49885</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>봉대박</t>
+          <t>48393p45824p48149</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3739,22 +3871,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E68" t="n">
-        <v>14400</v>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0x3840</t>
+        </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>49885p48708</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>술</t>
+          <t>49696</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>트리플섹보드카</t>
+          <t>53944p47532p54540p49465p48372p46300p52852</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3788,22 +3922,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E69" t="n">
-        <v>12100</v>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0x2f44</t>
+        </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>생필품</t>
+          <t>49373p54596p54408</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>주방</t>
+          <t>51452p48169</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>dc마트</t>
+          <t>100p99p47560p53944</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -3837,22 +3973,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E70" t="n">
-        <v>7300</v>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0x1c84</t>
+        </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>49885p48708</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>외식</t>
+          <t>50808p49885</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>롯데리아</t>
+          <t>47215p45936p47532p50500</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -3886,22 +4024,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E71" t="n">
-        <v>6120</v>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0x17e8</t>
+        </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>49885p48708</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>집밥</t>
+          <t>51665p48165</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>우리마트</t>
+          <t>50864p47532p47560p53944</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -3935,22 +4075,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E72" t="n">
-        <v>3250</v>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0xcb2</t>
+        </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>구독</t>
+          <t>44396p46021</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>왓챠</t>
+          <t>50771p52320</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>왓챠'</t>
+          <t>50771p52320p39</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -3984,22 +4126,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E73" t="n">
-        <v>4000</v>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>0xfa0</t>
+        </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>기타</t>
+          <t>44592p53440</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>사줌</t>
+          <t>49324p51468</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>없음</t>
+          <t>50630p51020</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4033,22 +4177,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E74" t="n">
-        <v>10150</v>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0x27a6</t>
+        </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>49885p48708</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>간식</t>
+          <t>44036p49885</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>67p68</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4082,22 +4228,24 @@
           <t>수익</t>
         </is>
       </c>
-      <c r="E75" t="n">
-        <v>50000</v>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>0xc350</t>
+        </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>알바</t>
+          <t>50508p48148</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>꽃집</t>
+          <t>44867p51665</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>없음</t>
+          <t>50630p51020</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4131,22 +4279,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E76" t="n">
-        <v>8000</v>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>0x1f40</t>
+        </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>49885p48708</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>외식</t>
+          <t>50808p49885</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>포항국밥</t>
+          <t>54252p54637p44397p48165</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4180,22 +4330,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E77" t="n">
-        <v>1000</v>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>0x3e8</t>
+        </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>49885p48708</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>커피</t>
+          <t>52964p54588</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>스벅깊티</t>
+          <t>49828p48261p44618p54000</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4229,22 +4381,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E78" t="n">
-        <v>13500</v>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>0x34bc</t>
+        </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>구독</t>
+          <t>44396p46021</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>넷플릭스</t>
+          <t>45367p54540p47533p49828</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>스탠다드</t>
+          <t>49828p53472p45796p46300</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4278,22 +4432,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E79" t="n">
-        <v>14050</v>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>0x36e2</t>
+        </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>생필품</t>
+          <t>49373p54596p54408</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>주방</t>
+          <t>51452p48169</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>다이소</t>
+          <t>45796p51060p49548</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4327,22 +4483,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E80" t="n">
-        <v>6030</v>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>0x178e</t>
+        </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>49885p48708</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>집밥</t>
+          <t>51665p48165</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>우리마트</t>
+          <t>50864p47532p47560p53944</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4376,22 +4534,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E81" t="n">
-        <v>8200</v>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>0x2008</t>
+        </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>49885p48708</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>커피</t>
+          <t>52964p54588</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>하삼동</t>
+          <t>54616p49340p46041</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4425,22 +4585,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E82" t="n">
-        <v>810</v>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>0x32a</t>
+        </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>49885p48708</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>간식</t>
+          <t>44036p49885</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>물</t>
+          <t>47932</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4474,22 +4636,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E83" t="n">
-        <v>2500</v>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>0x9c4</t>
+        </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>49885p48708</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>간식</t>
+          <t>44036p49885</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>세계과자점</t>
+          <t>49464p44228p44284p51088p51216</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4523,22 +4687,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E84" t="n">
-        <v>1000</v>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>0x3e8</t>
+        </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>가구</t>
+          <t>44032p44396</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>인테리어</t>
+          <t>51064p53580p47532p50612</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>화병</t>
+          <t>54868p48337</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4572,22 +4738,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E85" t="n">
-        <v>6000</v>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>0x1770</t>
+        </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>49885p48708</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>외식</t>
+          <t>50808p49885</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>만두</t>
+          <t>47564p46160</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -4621,22 +4789,24 @@
           <t>지출</t>
         </is>
       </c>
-      <c r="E86" t="n">
-        <v>1500</v>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>0x5dc</t>
+        </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>식비</t>
+          <t>49885p48708</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>간식</t>
+          <t>44036p49885</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>이마트</t>
+          <t>51060p47560p53944</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -4652,6 +4822,49 @@
       <c r="K86" t="inlineStr">
         <is>
           <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B87" t="n">
+        <v>8</v>
+      </c>
+      <c r="C87" t="n">
+        <v>16</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>수익</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>0xf4240</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>50900p44553</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>49912p50900p44553</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>50630p51020</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
